--- a/planos/comprobar_manual/results_final/34_sensors.xlsx
+++ b/planos/comprobar_manual/results_final/34_sensors.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.50090809407744</v>
+        <v>10.48128064354186</v>
       </c>
       <c r="F2" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.50090809407744</v>
+        <v>10.48128064354186</v>
       </c>
       <c r="F3" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G3" t="n">
         <v>0.6</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.50090809407744</v>
+        <v>10.48128064354186</v>
       </c>
       <c r="F4" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.50090809407744</v>
+        <v>10.48128064354186</v>
       </c>
       <c r="F5" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G5" t="n">
         <v>1.1</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.47040206805425</v>
+        <v>12.44709339821764</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.47040206805425</v>
+        <v>12.44709339821764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G7" t="n">
         <v>0.6</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.47040206805425</v>
+        <v>12.44709339821764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.47040206805425</v>
+        <v>12.44709339821764</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G9" t="n">
         <v>1.1</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11.48565508106584</v>
+        <v>11.46418702087975</v>
       </c>
       <c r="F10" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.48565508106584</v>
+        <v>11.46418702087975</v>
       </c>
       <c r="F11" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G11" t="n">
         <v>1.1</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.48565508106584</v>
+        <v>11.46418702087975</v>
       </c>
       <c r="F12" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G12" t="n">
         <v>1.7</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.48565508106584</v>
+        <v>11.46418702087975</v>
       </c>
       <c r="F13" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G13" t="n">
         <v>1.1</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.48565508106584</v>
+        <v>11.46418702087975</v>
       </c>
       <c r="F14" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G14" t="n">
         <v>1.1</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.48565508106584</v>
+        <v>11.46418702087975</v>
       </c>
       <c r="F15" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14.43989604203106</v>
+        <v>14.41290615289341</v>
       </c>
       <c r="F16" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.43989604203106</v>
+        <v>14.41290615289341</v>
       </c>
       <c r="F17" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G17" t="n">
         <v>0.6</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.43989604203106</v>
+        <v>14.41290615289341</v>
       </c>
       <c r="F18" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14.43989604203106</v>
+        <v>14.41290615289341</v>
       </c>
       <c r="F19" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G19" t="n">
         <v>1.1</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.40939001600787</v>
+        <v>16.37871890756918</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G20" t="n">
         <v>0.1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.40939001600787</v>
+        <v>16.37871890756918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G21" t="n">
         <v>0.6</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.40939001600787</v>
+        <v>16.37871890756918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.40939001600787</v>
+        <v>16.37871890756918</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G23" t="n">
         <v>1.1</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.42464302901947</v>
+        <v>15.39581253023129</v>
       </c>
       <c r="F24" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G24" t="n">
         <v>0.1</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.42464302901947</v>
+        <v>15.39581253023129</v>
       </c>
       <c r="F25" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G25" t="n">
         <v>1.1</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15.42464302901947</v>
+        <v>15.39581253023129</v>
       </c>
       <c r="F26" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G26" t="n">
         <v>1.7</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15.42464302901947</v>
+        <v>15.39581253023129</v>
       </c>
       <c r="F27" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G27" t="n">
         <v>1.1</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>15.42464302901947</v>
+        <v>15.39581253023129</v>
       </c>
       <c r="F28" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G28" t="n">
         <v>1.1</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.42464302901947</v>
+        <v>15.39581253023129</v>
       </c>
       <c r="F29" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>18.37888398998468</v>
+        <v>18.34453166224496</v>
       </c>
       <c r="F30" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G30" t="n">
         <v>0.1</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>18.37888398998468</v>
+        <v>18.34453166224496</v>
       </c>
       <c r="F31" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G31" t="n">
         <v>0.6</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.37888398998468</v>
+        <v>18.34453166224496</v>
       </c>
       <c r="F32" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>18.37888398998468</v>
+        <v>18.34453166224496</v>
       </c>
       <c r="F33" t="n">
-        <v>2.327912587628323</v>
+        <v>2.323561441160277</v>
       </c>
       <c r="G33" t="n">
         <v>1.1</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20.3483779639615</v>
+        <v>20.31034441692073</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G34" t="n">
         <v>0.1</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20.3483779639615</v>
+        <v>20.31034441692073</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G35" t="n">
         <v>0.6</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.3483779639615</v>
+        <v>20.31034441692073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.3483779639615</v>
+        <v>20.31034441692073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8026207803209804</v>
+        <v>0.8011205862879082</v>
       </c>
       <c r="G37" t="n">
         <v>1.1</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.36363097697309</v>
+        <v>19.32743803958284</v>
       </c>
       <c r="F38" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G38" t="n">
         <v>0.1</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19.36363097697309</v>
+        <v>19.32743803958284</v>
       </c>
       <c r="F39" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G39" t="n">
         <v>1.1</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.36363097697309</v>
+        <v>19.32743803958284</v>
       </c>
       <c r="F40" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G40" t="n">
         <v>1.7</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>19.36363097697309</v>
+        <v>19.32743803958284</v>
       </c>
       <c r="F41" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G41" t="n">
         <v>1.1</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>19.36363097697309</v>
+        <v>19.32743803958284</v>
       </c>
       <c r="F42" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G42" t="n">
         <v>1.1</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>19.36363097697309</v>
+        <v>19.32743803958284</v>
       </c>
       <c r="F43" t="n">
-        <v>1.565266683974652</v>
+        <v>1.562341013724093</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.93014166652011</v>
+        <v>22.88728249497977</v>
       </c>
       <c r="F44" t="n">
-        <v>1.535735714934119</v>
+        <v>1.532865241589286</v>
       </c>
       <c r="G44" t="n">
         <v>0.1</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>22.93014166652011</v>
+        <v>22.88728249497977</v>
       </c>
       <c r="F45" t="n">
-        <v>1.535735714934119</v>
+        <v>1.532865241589286</v>
       </c>
       <c r="G45" t="n">
         <v>1.7</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.531307578233146</v>
+        <v>3.524707142899675</v>
       </c>
       <c r="F46" t="n">
-        <v>2.311106412242156</v>
+        <v>2.306786678521763</v>
       </c>
       <c r="G46" t="n">
         <v>0.1</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.531307578233146</v>
+        <v>3.524707142899675</v>
       </c>
       <c r="F47" t="n">
-        <v>2.311106412242156</v>
+        <v>2.306786678521763</v>
       </c>
       <c r="G47" t="n">
         <v>0.6</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.531307578233146</v>
+        <v>3.524707142899675</v>
       </c>
       <c r="F48" t="n">
-        <v>2.311106412242156</v>
+        <v>2.306786678521763</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.531307578233146</v>
+        <v>3.524707142899675</v>
       </c>
       <c r="F49" t="n">
-        <v>2.311106412242156</v>
+        <v>2.306786678521763</v>
       </c>
       <c r="G49" t="n">
         <v>1.1</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.323424975769572</v>
+        <v>5.313474859126736</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8497547892980607</v>
+        <v>0.848166496176657</v>
       </c>
       <c r="G50" t="n">
         <v>0.1</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.323424975769572</v>
+        <v>5.313474859126736</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8497547892980607</v>
+        <v>0.848166496176657</v>
       </c>
       <c r="G51" t="n">
         <v>0.6</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5.323424975769572</v>
+        <v>5.313474859126736</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8497547892980607</v>
+        <v>0.848166496176657</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.323424975769572</v>
+        <v>5.313474859126736</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8497547892980607</v>
+        <v>0.848166496176657</v>
       </c>
       <c r="G53" t="n">
         <v>1.1</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4.427366277001359</v>
+        <v>4.419091001013205</v>
       </c>
       <c r="F54" t="n">
-        <v>1.580430600770108</v>
+        <v>1.57747658734921</v>
       </c>
       <c r="G54" t="n">
         <v>0.1</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.427366277001359</v>
+        <v>4.419091001013205</v>
       </c>
       <c r="F55" t="n">
-        <v>1.580430600770108</v>
+        <v>1.57747658734921</v>
       </c>
       <c r="G55" t="n">
         <v>1.1</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.427366277001359</v>
+        <v>4.419091001013205</v>
       </c>
       <c r="F56" t="n">
-        <v>1.580430600770108</v>
+        <v>1.57747658734921</v>
       </c>
       <c r="G56" t="n">
         <v>1.7</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4.427366277001359</v>
+        <v>4.419091001013205</v>
       </c>
       <c r="F57" t="n">
-        <v>1.580430600770108</v>
+        <v>1.57747658734921</v>
       </c>
       <c r="G57" t="n">
         <v>1.1</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.427366277001359</v>
+        <v>4.419091001013205</v>
       </c>
       <c r="F58" t="n">
-        <v>1.580430600770108</v>
+        <v>1.57747658734921</v>
       </c>
       <c r="G58" t="n">
         <v>1.1</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.427366277001359</v>
+        <v>4.419091001013205</v>
       </c>
       <c r="F59" t="n">
-        <v>1.580430600770108</v>
+        <v>1.57747658734921</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>7.874446149920234</v>
+        <v>7.859727870232616</v>
       </c>
       <c r="F60" t="n">
-        <v>1.598090688670904</v>
+        <v>1.595103666437947</v>
       </c>
       <c r="G60" t="n">
         <v>0.1</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>7.874446149920234</v>
+        <v>7.859727870232616</v>
       </c>
       <c r="F61" t="n">
-        <v>1.598090688670904</v>
+        <v>1.595103666437947</v>
       </c>
       <c r="G61" t="n">
         <v>1.7</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.32228247842078</v>
+        <v>8.30672713918489</v>
       </c>
       <c r="F62" t="n">
-        <v>2.303789107352778</v>
+        <v>2.29948305054856</v>
       </c>
       <c r="G62" t="n">
         <v>1.1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8.32228247842078</v>
+        <v>8.30672713918489</v>
       </c>
       <c r="F63" t="n">
-        <v>2.303789107352778</v>
+        <v>2.29948305054856</v>
       </c>
       <c r="G63" t="n">
         <v>1.1</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>7.525735951080414</v>
+        <v>7.511669452373797</v>
       </c>
       <c r="F64" t="n">
-        <v>2.241116368711063</v>
+        <v>2.236927454735504</v>
       </c>
       <c r="G64" t="n">
         <v>0.1</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.525735951080414</v>
+        <v>7.511669452373797</v>
       </c>
       <c r="F65" t="n">
-        <v>2.241116368711063</v>
+        <v>2.236927454735504</v>
       </c>
       <c r="G65" t="n">
         <v>1.7</v>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8.315674723720214</v>
+        <v>8.300131735166509</v>
       </c>
       <c r="F66" t="n">
-        <v>2.337486642868107</v>
+        <v>2.333117601348132</v>
       </c>
       <c r="G66" t="n">
         <v>1.1</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>8.315674723720214</v>
+        <v>8.300131735166509</v>
       </c>
       <c r="F67" t="n">
-        <v>2.337486642868107</v>
+        <v>2.333117601348132</v>
       </c>
       <c r="G67" t="n">
         <v>1.1</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.876782793234147</v>
+        <v>7.862060146081291</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8507004044792019</v>
+        <v>0.8491103438901633</v>
       </c>
       <c r="G68" t="n">
         <v>0.1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7.876782793234147</v>
+        <v>7.862060146081291</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8507004044792019</v>
+        <v>0.8491103438901633</v>
       </c>
       <c r="G69" t="n">
         <v>1.7</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7.785658866703257</v>
+        <v>7.771106541044939</v>
       </c>
       <c r="F70" t="n">
-        <v>1.280415485856648</v>
+        <v>1.278022236493023</v>
       </c>
       <c r="G70" t="n">
         <v>0.1</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7.785658866703257</v>
+        <v>7.771106541044939</v>
       </c>
       <c r="F71" t="n">
-        <v>1.280415485856648</v>
+        <v>1.278022236493023</v>
       </c>
       <c r="G71" t="n">
         <v>1.7</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>8.085740967800982</v>
+        <v>8.070627752880217</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5260808381617558</v>
+        <v>0.5250975302862629</v>
       </c>
       <c r="G72" t="n">
         <v>1.1</v>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>8.085740967800982</v>
+        <v>8.070627752880217</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5260808381617558</v>
+        <v>0.5250975302862629</v>
       </c>
       <c r="G73" t="n">
         <v>1.1</v>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.349291997008665</v>
+        <v>1.346770009225126</v>
       </c>
       <c r="F74" t="n">
-        <v>1.548750007646875</v>
+        <v>1.545855209035676</v>
       </c>
       <c r="G74" t="n">
         <v>0.1</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7.122103276397917</v>
+        <v>7.108791215334779</v>
       </c>
       <c r="F75" t="n">
-        <v>2.172897587029201</v>
+        <v>2.168836182098675</v>
       </c>
       <c r="G75" t="n">
         <v>0.1</v>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7.122103276397917</v>
+        <v>7.108791215334779</v>
       </c>
       <c r="F76" t="n">
-        <v>2.172897587029201</v>
+        <v>2.168836182098675</v>
       </c>
       <c r="G76" t="n">
         <v>1.7</v>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.065725034174891</v>
+        <v>4.058125708832302</v>
       </c>
       <c r="F77" t="n">
-        <v>2.284043800197697</v>
+        <v>2.2797746497292</v>
       </c>
       <c r="G77" t="n">
         <v>0.1</v>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.065725034174891</v>
+        <v>4.058125708832302</v>
       </c>
       <c r="F78" t="n">
-        <v>2.284043800197697</v>
+        <v>2.2797746497292</v>
       </c>
       <c r="G78" t="n">
         <v>1.1</v>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.065725034174891</v>
+        <v>4.058125708832302</v>
       </c>
       <c r="F79" t="n">
-        <v>2.284043800197697</v>
+        <v>2.2797746497292</v>
       </c>
       <c r="G79" t="n">
         <v>1.7</v>
@@ -2910,10 +2910,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.065725034174891</v>
+        <v>4.058125708832302</v>
       </c>
       <c r="F80" t="n">
-        <v>2.284043800197697</v>
+        <v>2.2797746497292</v>
       </c>
       <c r="G80" t="n">
         <v>1.1</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>8.106956098976104</v>
+        <v>8.091803230443098</v>
       </c>
       <c r="F81" t="n">
-        <v>0.51877405229746</v>
+        <v>0.5178044016768293</v>
       </c>
       <c r="G81" t="n">
         <v>1.1</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.106956098976104</v>
+        <v>8.091803230443098</v>
       </c>
       <c r="F82" t="n">
-        <v>0.51877405229746</v>
+        <v>0.5178044016768293</v>
       </c>
       <c r="G82" t="n">
         <v>1.1</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.057894631026443</v>
+        <v>7.044702583584955</v>
       </c>
       <c r="F83" t="n">
-        <v>1.00563428597079</v>
+        <v>1.003754635465525</v>
       </c>
       <c r="G83" t="n">
         <v>0.1</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>7.057894631026443</v>
+        <v>7.044702583584955</v>
       </c>
       <c r="F84" t="n">
-        <v>1.00563428597079</v>
+        <v>1.003754635465525</v>
       </c>
       <c r="G84" t="n">
         <v>1.7</v>
